--- a/trend_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
+++ b/trend_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.612575788918561</v>
+        <v>0.387424211081439</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.999529381822893</v>
+        <v>0.000470618177107</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7570702768015</v>
+        <v>0.2429297231985</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.99996880367782</v>
+        <v>3.11963221799605e-05</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -3429,6 +3429,93 @@
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.034780549995304</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>82</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.932605</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-1.81708021484272</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0607783648579955</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.13732317073171</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
+++ b/trend_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.447453246510072</v>
+        <v>0.410108374754831</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.956521739130435</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.445</v>
+        <v>0.398</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0023015122873346</v>
+        <v>-0.0073589657488247</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.06468172328406729</v>
+        <v>-0.0653802601568604</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0834119978403899</v>
+        <v>0.0487790716989063</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.517193772434741</v>
+        <v>-1.84898636905143</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.387424211081439</v>
+        <v>0.042699938643465</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.815</v>
+        <v>7.835</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0346242031224589</v>
+        <v>-0.136212016574586</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.248408580374522</v>
+        <v>-0.258399499728829</v>
       </c>
       <c r="M3" t="n">
-        <v>0.141482020406256</v>
+        <v>-0.0154031815964628</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.443048024599602</v>
+        <v>-1.73850691224743</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0314599958530245</v>
+        <v>0.020477605085583</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.625</v>
+        <v>0.58</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0031231547539265</v>
+        <v>0.0026467391304347</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001661447079764</v>
+        <v>0.0004783506247069</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0056844113262973</v>
+        <v>0.0050092348394019</v>
       </c>
       <c r="N4" t="n">
-        <v>8.92329929693307</v>
+        <v>8.271059782608701</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.275639728513332</v>
+        <v>0.0009270128093078999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.729166666666667</v>
+        <v>0.86</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>10.8516314948394</v>
+        <v>76.8947368421053</v>
       </c>
       <c r="L5" t="n">
-        <v>-25.8069967761957</v>
+        <v>30.0516293579276</v>
       </c>
       <c r="M5" t="n">
-        <v>41.9121648553657</v>
+        <v>133.538153585387</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7419418947722</v>
+        <v>23.3014354066986</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,21 +929,21 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.531960136032624</v>
+        <v>0.131611715808712</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333333333333333</v>
+        <v>0.276595744680851</v>
       </c>
       <c r="H6" t="n">
-        <v>0.688888888888889</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>0.0145974473181752</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.0004652421210257</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0009047011796909</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0008277119488427</v>
+        <v>0.0024216347724801</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.18714711473226</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.780353957576252</v>
+        <v>0.115702590237174</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.395833333333333</v>
+        <v>0.38</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0004927487912945</v>
+        <v>0.0006640909090909</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0018186513052172</v>
+        <v>-0.000107869823255</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002897156366132</v>
+        <v>0.0010184672858861</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.47953446631446</v>
+        <v>5.53409090909091</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.946162883766666</v>
+        <v>0.997887008066441</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.58</v>
+        <v>5.45</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.19351524222195</v>
+        <v>-0.299273743016759</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.36917294109658</v>
+        <v>-0.46583353557356</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0074897252015408</v>
+        <v>-0.139113863917266</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.46801509358333</v>
+        <v>-5.49126133975705</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.000470618177107</v>
+        <v>0.0016109382618569</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8125</v>
+        <v>0.78</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.055</v>
+        <v>6.99</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0805509823813349</v>
+        <v>-0.07460171568627449</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.11543409466571</v>
+        <v>-0.110920354249348</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.043482142857143</v>
+        <v>-0.0337847894443523</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.14175736897711</v>
+        <v>-1.06726345760049</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.94216179136528</v>
+        <v>0.997395869016127</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.6475</v>
+        <v>5.472</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.194553252072002</v>
+        <v>-0.297993391066545</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.365031213346922</v>
+        <v>-0.451984981725601</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0110030092899537</v>
+        <v>-0.137053330322199</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.44494470247015</v>
+        <v>-5.44578565545587</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.731322498959425</v>
+        <v>0.991827830293499</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.375</v>
+        <v>0.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.61</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.232109443954104</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.05498751833247</v>
+        <v>-0.382349117228147</v>
       </c>
       <c r="M11" t="n">
-        <v>0.336964282879273</v>
+        <v>-0.07619906682182551</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-4.13742324338866</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.960057959625723</v>
+        <v>0.09866239701536141</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.875</v>
+        <v>0.68</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.66</v>
+        <v>0.067</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.217793889834167</v>
+        <v>0.0025051440329218</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.379438514496666</v>
+        <v>-0.0005835714356348</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0096883289124668</v>
+        <v>0.0054072605369183</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.84794858364252</v>
+        <v>3.73902094465942</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0546923553469015</v>
+        <v>0.637327364004623</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.770833333333333</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.066</v>
+        <v>4.015</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0027912151170066</v>
+        <v>-0.0727853260869564</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0.531185137914487</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0060401657639389</v>
+        <v>0.313850443472794</v>
       </c>
       <c r="N13" t="n">
-        <v>4.22911381364641</v>
+        <v>-1.81283502084574</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.850806986504845</v>
+        <v>0.0064686624600199</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H14" t="n">
+        <v>0.759259259259259</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>0.471</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.261551397996412</v>
+        <v>-0.0577205071664829</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.793958025765593</v>
+        <v>-0.114084723970903</v>
       </c>
       <c r="M14" t="n">
-        <v>0.121312806464448</v>
+        <v>-0.013929085228897</v>
       </c>
       <c r="N14" t="n">
-        <v>-6.621554379656</v>
+        <v>-12.2548847487225</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0057554000033189</v>
+        <v>0.06930325283016001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0192307692307692</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75</v>
+        <v>0.850467289719626</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.499</v>
+        <v>7.81</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.08411229402414271</v>
+        <v>-0.0298976807639837</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.153264249935472</v>
+        <v>-0.0854478884665584</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0247347454077543</v>
+        <v>0.008016432506138999</v>
       </c>
       <c r="N15" t="n">
-        <v>-16.8561711471228</v>
+        <v>-0.382812813879432</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.2429297231985</v>
+        <v>0.09383296186247909</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.86</v>
+        <v>0.401869158878505</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.82</v>
+        <v>0.034</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0198865698729583</v>
+        <v>0.0005202991452991</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08259232993306651</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.035832142254271</v>
+        <v>0.0011816300771708</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.254303962569799</v>
+        <v>1.53029160382101</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0250904682662936</v>
+        <v>0.536189979846053</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0654205607476635</v>
       </c>
       <c r="H17" t="n">
-        <v>0.42</v>
+        <v>0.682242990654206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.034</v>
+        <v>362</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0009518743007375</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-12.9540056624906</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0017090714045436</v>
+        <v>9.34565208995574</v>
       </c>
       <c r="N17" t="n">
-        <v>2.79963029628686</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.757551969957725</v>
+        <v>6.0403978695796e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.485436893203884</v>
       </c>
       <c r="H18" t="n">
-        <v>0.67</v>
+        <v>0.5242718446601941</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>352.5</v>
+        <v>0.0104558787072211</v>
       </c>
       <c r="K18" t="n">
-        <v>-5.1387987012987</v>
+        <v>0.0008463417503464001</v>
       </c>
       <c r="L18" t="n">
-        <v>-27.0041632049761</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.92295436136675</v>
+        <v>0.0011521294672879</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.45781523441098</v>
+        <v>8.094410561227621</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.68559413968783e-05</v>
+        <v>0.961688981718147</v>
       </c>
       <c r="G19" t="n">
-        <v>0.526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.484210526315789</v>
+        <v>0.252336448598131</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0003339683023468</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0006663443898865</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0009884030965154</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-2.56898694112958</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.992939321899626</v>
+        <v>0.999997059998234</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.26</v>
+        <v>0.953271028037383</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.012</v>
+        <v>5.73</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0004728157320579</v>
+        <v>-0.180261822074215</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0008398064222973</v>
+        <v>-0.229031698447565</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0001509090952635</v>
+        <v>-0.127848763370571</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.94013110048328</v>
+        <v>-3.14593057721143</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.99997889005192</v>
+        <v>1.26878449968615e-08</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.96</v>
+        <v>0.594339622641509</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.915</v>
+        <v>7.125</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.175772640393719</v>
+        <v>-0.0420120250958522</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.232333112301712</v>
+        <v>-0.0538174246964248</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.115761066651846</v>
+        <v>-0.030300587739665</v>
       </c>
       <c r="N21" t="n">
-        <v>-2.97164227208316</v>
+        <v>-0.589642457485645</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.11963221799605e-05</v>
+        <v>0.9999952510217091</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.622448979591837</v>
+        <v>0.990654205607477</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.13</v>
+        <v>5.801</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0349081991951709</v>
+        <v>-0.176532546786005</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0500023844508192</v>
+        <v>-0.227291834373301</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0208714285714285</v>
+        <v>-0.124591306996369</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.489596061643351</v>
+        <v>-3.04313992046207</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.999970216456631</v>
+        <v>0.999999947988948</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.99</v>
+        <v>0.8878504672897199</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.9425</v>
+        <v>5.91</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.172345812980093</v>
+        <v>-0.193197072444591</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.2312170021651</v>
+        <v>-0.23997088657551</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.112553261006306</v>
+        <v>-0.143548169767531</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.90022402995529</v>
+        <v>-3.26898599737041</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.99897861954879</v>
+        <v>0.5128890685017919</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3</v>
+        <v>0.5981308411214949</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.5</v>
+        <v>0.067</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.685658186300698</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.06798245614035</v>
+        <v>-0.0013950862231752</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.282046332046332</v>
+        <v>0.0012442851184344</v>
       </c>
       <c r="N24" t="n">
-        <v>-10.5485874815492</v>
+        <v>0</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9999998920686169</v>
+        <v>0.952445506855934</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9</v>
+        <v>0.962616822429907</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.2515</v>
+        <v>4.49</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.199726897250432</v>
+        <v>-0.162702272727273</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.255828212824488</v>
+        <v>-0.372704997278332</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.144587944765443</v>
+        <v>-0.0044687065290683</v>
       </c>
       <c r="N25" t="n">
-        <v>-3.19486358874561</v>
+        <v>-3.62365863535128</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.19057060587466</v>
+        <v>5.47279789497868e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0394736842105263</v>
       </c>
       <c r="H26" t="n">
-        <v>0.64</v>
+        <v>0.6447368421052631</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.067</v>
+        <v>0.775</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0007569956315558</v>
+        <v>-0.08532456668385489</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0007168476016538</v>
+        <v>-0.126168907122025</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0020897497756647</v>
+        <v>-0.0518326137707392</v>
       </c>
       <c r="N26" t="n">
-        <v>1.12984422620282</v>
+        <v>-11.0096215075942</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.977160734016872</v>
+        <v>0.0044494078531489</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.96</v>
+        <v>0.82089552238806</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.625</v>
+        <v>8.005000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.223382510729614</v>
+        <v>-0.058716944246198</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.437648377067747</v>
+        <v>-0.0923487012632557</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0399082507000905</v>
+        <v>-0.0163432881959413</v>
       </c>
       <c r="N27" t="n">
-        <v>-4.82989212388354</v>
+        <v>-0.733503363475302</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.04320536648685</v>
+        <v>0.0011301585798951</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0074626865671641</v>
       </c>
       <c r="H28" t="n">
+        <v>0.335820895522388</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.17</v>
+        <v>0.032</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0176234223826715</v>
+        <v>0.0006363240418118</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0289739472043881</v>
+        <v>0.0002973659708639</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0098155454717606</v>
+        <v>0.0010083710163902</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.3667190486303</v>
+        <v>1.98851263066202</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.40324797025367</v>
+        <v>0.770600086566656</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0522388059701493</v>
       </c>
       <c r="H29" t="n">
+        <v>0.708955223880597</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>80.83</v>
+        <v>382</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.20306581227437</v>
+        <v>-2.97354138398915</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.03633874720752</v>
+        <v>-10.4839641012304</v>
       </c>
       <c r="M29" t="n">
-        <v>2.33534650169583</v>
+        <v>3.85041402127554</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.48839021684321</v>
+        <v>-0.778413974866269</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.021631363903455</v>
+        <v>0.0997382879467326</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.434108527131783</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8</v>
+        <v>0.5658914728682169</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4.146</v>
+        <v>0.0118391864572181</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.06292057117750439</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.118464207243067</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0280909836856561</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.51762110896055</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.103413686247836</v>
+        <v>0.977802422339842</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.251968503937008</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.19</v>
+        <v>0.013</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0043647474198805</v>
+        <v>-0.0003137886597938</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.007897377799419601</v>
+        <v>-0.0005934819279196</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0001045996851895</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.29723548414763</v>
+        <v>-2.41375892149088</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,11 +3280,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3279,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.139625472684369</v>
+        <v>0.999999999175617</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8</v>
+        <v>0.960629921259842</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>81</v>
+        <v>5.96</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.657393328161366</v>
+        <v>-0.179640044576523</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.71282767688113</v>
+        <v>-0.214170037116946</v>
       </c>
       <c r="M32" t="n">
-        <v>0.302288668170083</v>
+        <v>-0.140472759645684</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.811596701433785</v>
+        <v>-3.01409470765978</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0.0017091754606289</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.564885496183206</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.105</v>
+        <v>7.1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.017649190625755</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0438877536433393</v>
+        <v>-0.0290115998813933</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0338759652772201</v>
+        <v>-0.0074864149269545</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.248580149658522</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3453,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.034780549995304</v>
+        <v>0.99999999968339</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.785714285714286</v>
+        <v>0.985074626865672</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82</v>
+        <v>6.0285</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.932605</v>
+        <v>-0.164748080614203</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.81708021484272</v>
+        <v>-0.199314867653585</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0607783648579955</v>
+        <v>-0.12878351593773</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.13732317073171</v>
+        <v>-2.73282044644942</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3515,7 +3535,1067 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.99999999999931</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.895522388059702</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.172107329842932</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.208216925475663</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.138196069912136</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-2.71891516339545</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6223574348373631</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.552238805970149</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0001597070397901</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0009551738969516</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0006630534747242</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.231459477956693</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.988209858931253</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.962686567164179</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.235</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.143200629235237</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.246257882276061</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0375550373198304</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-2.73544659475143</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.008991924365131399</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0198436523162641</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.0026574212160133</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-5.32066530481148</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>77</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-1.8384727772829</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-6.03633874720752</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.09489802870245211</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.38762698348429</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.021631363903455</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0564647518497732</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.118464207243067</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0383900711490622</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.37718906950666</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.029657203235177</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0051579876434245</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.00899642869389</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.0019699029827731</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-2.86554869079141</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.074556527569078</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>80.91500000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.657393328161366</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-1.81802243926726</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.812449271657129</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.393807883351103</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.007339833106267</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0522667480615656</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0213753790105409</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.17902031966505</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0240349890987021</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0030269337016574</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0051279498598539</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.0010755168168365</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.59312300087235</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>15</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.009785084539922001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>81</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.968253293084522</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-1.58155805506101</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.145586934855983</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.19537443590682</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.543723699044852</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8.396551724140741e-05</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0155434797194597</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0168251786516606</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0020479394449123</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
+++ b/trend_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -136,49 +136,46 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -657,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.410108374754831</v>
+        <v>0.100806161767348</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -669,26 +666,26 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.398</v>
+        <v>0.42</v>
       </c>
       <c r="K2">
-        <v>-0.0073589657488247</v>
+        <v>-0.0438010819894259</v>
       </c>
       <c r="L2">
-        <v>-0.0653802601568604</v>
+        <v>-0.127395836107443</v>
       </c>
       <c r="M2">
-        <v>0.0487790716989063</v>
+        <v>0.0116658095426766</v>
       </c>
       <c r="N2">
-        <v>-1.84898636905143</v>
+        <v>-10.4288290451014</v>
       </c>
       <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
       <c r="Q2">
         <v>1792826.893</v>
       </c>
@@ -696,19 +693,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
         <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,37 +725,37 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.042699938643465</v>
+        <v>0.671309786444959</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.835</v>
+        <v>7.85</v>
       </c>
       <c r="K3">
-        <v>-0.136212016574586</v>
+        <v>0.0344939725661011</v>
       </c>
       <c r="L3">
-        <v>-0.258399499728829</v>
+        <v>-0.0558275999254011</v>
       </c>
       <c r="M3">
-        <v>-0.0154031815964628</v>
+        <v>0.131763520634765</v>
       </c>
       <c r="N3">
-        <v>-1.73850691224743</v>
+        <v>0.439413663262435</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>1792826.893</v>
@@ -767,19 +764,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,37 +796,37 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.020477605085583</v>
+        <v>0.0303746936409523</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.58</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="K4">
-        <v>0.0026467391304347</v>
+        <v>0.0016305803571428</v>
       </c>
       <c r="L4">
-        <v>0.0004783506247069</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0050092348394019</v>
+        <v>0.0030891045268067</v>
       </c>
       <c r="N4">
-        <v>8.271059782608701</v>
+        <v>4.9411525974026</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1792826.893</v>
@@ -838,19 +835,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,37 +867,37 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.0009270128093078999</v>
+        <v>0.0480657096552647</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.86</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>330</v>
+        <v>351.4</v>
       </c>
       <c r="K5">
-        <v>76.8947368421053</v>
+        <v>26.5910027472527</v>
       </c>
       <c r="L5">
-        <v>30.0516293579276</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>133.538153585387</v>
+        <v>61.5886990563911</v>
       </c>
       <c r="N5">
-        <v>23.3014354066986</v>
+        <v>7.56716071350391</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1792826.893</v>
@@ -909,19 +906,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,41 +935,41 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.131611715808712</v>
+        <v>0.245826558364047</v>
       </c>
       <c r="G6">
-        <v>0.276595744680851</v>
+        <v>0.296296296296296</v>
       </c>
       <c r="H6">
-        <v>0.74468085106383</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0145974473181752</v>
+        <v>0.0129313004599487</v>
       </c>
       <c r="K6">
-        <v>0.0004652421210257</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-2.01227219128549E-05</v>
       </c>
       <c r="M6">
-        <v>0.0024216347724801</v>
+        <v>0.0014846843369586</v>
       </c>
       <c r="N6">
-        <v>3.18714711473226</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
       <c r="Q6">
         <v>1792826.893</v>
       </c>
@@ -980,19 +977,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,37 +1009,37 @@
         <v>39</v>
       </c>
       <c r="F7">
-        <v>0.115702590237174</v>
+        <v>0.646082690934386</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.38</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="K7">
-        <v>0.0006640909090909</v>
+        <v>-0.0001274424284717</v>
       </c>
       <c r="L7">
-        <v>-0.000107869823255</v>
+        <v>-0.0009608547735542</v>
       </c>
       <c r="M7">
-        <v>0.0010184672858861</v>
+        <v>0.0006581854272929</v>
       </c>
       <c r="N7">
-        <v>5.53409090909091</v>
+        <v>-1.15856753156125</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1792826.893</v>
@@ -1051,19 +1048,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,37 +1080,37 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.997887008066441</v>
+        <v>0.793438760014105</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="K8">
-        <v>-0.299273743016759</v>
+        <v>-0.0579761904761905</v>
       </c>
       <c r="L8">
-        <v>-0.46583353557356</v>
+        <v>-0.162843436871036</v>
       </c>
       <c r="M8">
-        <v>-0.139113863917266</v>
+        <v>0.0623574512464183</v>
       </c>
       <c r="N8">
-        <v>-5.49126133975705</v>
+        <v>-1.05795968022245</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>1792826.893</v>
@@ -1122,19 +1119,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,13 +1151,13 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.0016109382618569</v>
+        <v>0.256410419395092</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.78</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1169,22 +1166,22 @@
         <v>6.99</v>
       </c>
       <c r="K9">
-        <v>-0.07460171568627449</v>
+        <v>-0.0102470744932007</v>
       </c>
       <c r="L9">
-        <v>-0.110920354249348</v>
+        <v>-0.0448820561501338</v>
       </c>
       <c r="M9">
-        <v>-0.0337847894443523</v>
+        <v>0.0234076456407958</v>
       </c>
       <c r="N9">
-        <v>-1.06726345760049</v>
+        <v>-0.146596201619467</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>1792826.893</v>
@@ -1193,16 +1190,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,7 +1219,7 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.997395869016127</v>
+        <v>0.7817527401330771</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1234,25 +1231,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.472</v>
+        <v>5.513</v>
       </c>
       <c r="K10">
-        <v>-0.297993391066545</v>
+        <v>-0.0530201612903224</v>
       </c>
       <c r="L10">
-        <v>-0.451984981725601</v>
+        <v>-0.162982871105991</v>
       </c>
       <c r="M10">
-        <v>-0.137053330322199</v>
+        <v>0.0621670077838606</v>
       </c>
       <c r="N10">
-        <v>-5.44578565545587</v>
+        <v>-0.961729753134815</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1792826.893</v>
@@ -1261,19 +1258,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,38 +1290,38 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.991827830293499</v>
+        <v>0.279715555963642</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.61</v>
+        <v>5.69</v>
       </c>
       <c r="K11">
-        <v>-0.232109443954104</v>
+        <v>0.0453077290076336</v>
       </c>
       <c r="L11">
-        <v>-0.382349117228147</v>
+        <v>-0.0932024909648034</v>
       </c>
       <c r="M11">
-        <v>-0.07619906682182551</v>
+        <v>0.176309389050134</v>
       </c>
       <c r="N11">
-        <v>-4.13742324338866</v>
+        <v>0.796269402594614</v>
       </c>
       <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
         <v>43</v>
       </c>
-      <c r="P11" t="s">
-        <v>49</v>
-      </c>
       <c r="Q11">
         <v>1792826.893</v>
       </c>
@@ -1332,19 +1329,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.09866239701536141</v>
+        <v>0.234207346341347</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.68</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1379,23 +1376,23 @@
         <v>0.067</v>
       </c>
       <c r="K12">
-        <v>0.0025051440329218</v>
+        <v>0.0010361702127659</v>
       </c>
       <c r="L12">
-        <v>-0.0005835714356348</v>
+        <v>-0.0017992873744527</v>
       </c>
       <c r="M12">
-        <v>0.0054072605369183</v>
+        <v>0.00389948110596</v>
       </c>
       <c r="N12">
-        <v>3.73902094465942</v>
+        <v>1.54652270562083</v>
       </c>
       <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
         <v>43</v>
       </c>
-      <c r="P12" t="s">
-        <v>51</v>
-      </c>
       <c r="Q12">
         <v>1792826.893</v>
       </c>
@@ -1403,19 +1400,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,43 +1426,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.637327364004623</v>
+        <v>0.831062575630752</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.015</v>
+        <v>3.855</v>
       </c>
       <c r="K13">
-        <v>-0.0727853260869564</v>
+        <v>-0.170701111560379</v>
       </c>
       <c r="L13">
-        <v>-0.531185137914487</v>
+        <v>-0.302751016156763</v>
       </c>
       <c r="M13">
-        <v>0.313850443472794</v>
+        <v>0.170579377075133</v>
       </c>
       <c r="N13">
-        <v>-1.81283502084574</v>
+        <v>-4.42804439845342</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1792826.893</v>
@@ -1474,19 +1471,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1503,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.0064686624600199</v>
+        <v>0.089267809742707</v>
       </c>
       <c r="G14">
-        <v>0.0185185185185185</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="H14">
-        <v>0.759259259259259</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.471</v>
+        <v>0.45</v>
       </c>
       <c r="K14">
-        <v>-0.0577205071664829</v>
+        <v>-0.0255109288786583</v>
       </c>
       <c r="L14">
-        <v>-0.114084723970903</v>
+        <v>-0.0654961184566521</v>
       </c>
       <c r="M14">
-        <v>-0.013929085228897</v>
+        <v>0.0049266217951816</v>
       </c>
       <c r="N14">
-        <v>-12.2548847487225</v>
+        <v>-5.66909530636851</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1792826.893</v>
@@ -1545,19 +1542,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
         <v>58</v>
-      </c>
-      <c r="W14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1574,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.06930325283016001</v>
+        <v>0.294979173307645</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.850467289719626</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.81</v>
+        <v>7.82</v>
       </c>
       <c r="K15">
-        <v>-0.0298976807639837</v>
+        <v>-0.0112323643923957</v>
       </c>
       <c r="L15">
-        <v>-0.0854478884665584</v>
+        <v>-0.0583710111280557</v>
       </c>
       <c r="M15">
-        <v>0.008016432506138999</v>
+        <v>0.0440962012775641</v>
       </c>
       <c r="N15">
-        <v>-0.382812813879432</v>
+        <v>-0.143636373304292</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1792826.893</v>
@@ -1616,19 +1613,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,13 +1645,13 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.09383296186247909</v>
+        <v>0.158177905520355</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.401869158878505</v>
+        <v>0.37962962962963</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1663,23 +1660,23 @@
         <v>0.034</v>
       </c>
       <c r="K16">
-        <v>0.0005202991452991</v>
+        <v>0.0002877153126376</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-0.0001887526730848</v>
       </c>
       <c r="M16">
-        <v>0.0011816300771708</v>
+        <v>0.0008715256109178</v>
       </c>
       <c r="N16">
-        <v>1.53029160382101</v>
+        <v>0.846221507757862</v>
       </c>
       <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
-        <v>51</v>
-      </c>
       <c r="Q16">
         <v>1792826.893</v>
       </c>
@@ -1687,19 +1684,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,40 +1713,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>0.536189979846053</v>
+        <v>0.694849334697248</v>
       </c>
       <c r="G17">
-        <v>0.0654205607476635</v>
+        <v>0.0648148148148148</v>
       </c>
       <c r="H17">
-        <v>0.682242990654206</v>
+        <v>0.712962962962963</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-3.96808862677718</v>
       </c>
       <c r="L17">
-        <v>-12.9540056624906</v>
+        <v>-15.2041909632653</v>
       </c>
       <c r="M17">
-        <v>9.34565208995574</v>
+        <v>6.22025396367955</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>-1.16708489022858</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1792826.893</v>
@@ -1758,19 +1755,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,40 +1784,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>6.0403978695796E-07</v>
+        <v>0.000670825226786</v>
       </c>
       <c r="G18">
-        <v>0.485436893203884</v>
+        <v>0.432692307692308</v>
       </c>
       <c r="H18">
-        <v>0.5242718446601941</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0104558787072211</v>
+        <v>0.0115568077202939</v>
       </c>
       <c r="K18">
-        <v>0.0008463417503464001</v>
+        <v>0.0001933248999137</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0011521294672879</v>
+        <v>0.00094023863239</v>
       </c>
       <c r="N18">
-        <v>8.094410561227621</v>
+        <v>1.67282267381044</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1792826.893</v>
@@ -1829,19 +1826,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,37 +1858,37 @@
         <v>39</v>
       </c>
       <c r="F19">
-        <v>0.961688981718147</v>
+        <v>0.97144095734716</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.252336448598131</v>
+        <v>0.231481481481481</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.013</v>
+        <v>0.0115</v>
       </c>
       <c r="K19">
-        <v>-0.0003339683023468</v>
+        <v>-0.000338352903166</v>
       </c>
       <c r="L19">
-        <v>-0.0006663443898865</v>
+        <v>-0.0006625679407587</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-2.56898694112958</v>
+        <v>-2.94219915796534</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q19">
         <v>1792826.893</v>
@@ -1900,19 +1897,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,37 +1929,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.999997059998234</v>
+        <v>0.9953631417447319</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.953271028037383</v>
+        <v>0.935185185185185</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.73</v>
+        <v>5.58</v>
       </c>
       <c r="K20">
-        <v>-0.180261822074215</v>
+        <v>-0.100675191304203</v>
       </c>
       <c r="L20">
-        <v>-0.229031698447565</v>
+        <v>-0.154563160299432</v>
       </c>
       <c r="M20">
-        <v>-0.127848763370571</v>
+        <v>-0.0427607688576756</v>
       </c>
       <c r="N20">
-        <v>-3.14593057721143</v>
+        <v>-1.80421489792478</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q20">
         <v>1792826.893</v>
@@ -1971,19 +1968,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,37 +2000,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>1.26878449968615E-08</v>
+        <v>1.87633712012136E-07</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.594339622641509</v>
+        <v>0.607476635514019</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.125</v>
+        <v>7.11</v>
       </c>
       <c r="K21">
-        <v>-0.0420120250958522</v>
+        <v>-0.0390451895043731</v>
       </c>
       <c r="L21">
-        <v>-0.0538174246964248</v>
+        <v>-0.0517802617230098</v>
       </c>
       <c r="M21">
-        <v>-0.030300587739665</v>
+        <v>-0.0271365842855437</v>
       </c>
       <c r="N21">
-        <v>-0.589642457485645</v>
+        <v>-0.549158783465164</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q21">
         <v>1792826.893</v>
@@ -2042,16 +2039,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2068,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.9999952510217091</v>
+        <v>0.994467987939732</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.990654205607477</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.801</v>
+        <v>5.64</v>
       </c>
       <c r="K22">
-        <v>-0.176532546786005</v>
+        <v>-0.09813717717906149</v>
       </c>
       <c r="L22">
-        <v>-0.227291834373301</v>
+        <v>-0.152164393199263</v>
       </c>
       <c r="M22">
-        <v>-0.124591306996369</v>
+        <v>-0.0389721662436016</v>
       </c>
       <c r="N22">
-        <v>-3.04313992046207</v>
+        <v>-1.74002087196918</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>1792826.893</v>
@@ -2110,19 +2107,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,37 +2139,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.999999947988948</v>
+        <v>0.999035667477389</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.8878504672897199</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.91</v>
+        <v>5.87</v>
       </c>
       <c r="K23">
-        <v>-0.193197072444591</v>
+        <v>-0.107311821206604</v>
       </c>
       <c r="L23">
-        <v>-0.23997088657551</v>
+        <v>-0.160921624105749</v>
       </c>
       <c r="M23">
-        <v>-0.143548169767531</v>
+        <v>-0.0540670305572407</v>
       </c>
       <c r="N23">
-        <v>-3.26898599737041</v>
+        <v>-1.82814005462699</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1792826.893</v>
@@ -2181,19 +2178,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>0.5128890685017919</v>
+        <v>0.640021835423513</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.5981308411214949</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2228,22 +2225,22 @@
         <v>0.067</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-0.0002476273177934</v>
       </c>
       <c r="L24">
-        <v>-0.0013950862231752</v>
+        <v>-0.0016405708996852</v>
       </c>
       <c r="M24">
-        <v>0.0012442851184344</v>
+        <v>0.0009091879146293</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>-0.369593011632012</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1792826.893</v>
@@ -2252,19 +2249,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,37 +2281,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.952445506855934</v>
+        <v>0.971515706023816</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.962616822429907</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.49</v>
+        <v>3.98</v>
       </c>
       <c r="K25">
-        <v>-0.162702272727273</v>
+        <v>-0.162706688225338</v>
       </c>
       <c r="L25">
-        <v>-0.372704997278332</v>
+        <v>-0.341145744244257</v>
       </c>
       <c r="M25">
-        <v>-0.0044687065290683</v>
+        <v>-0.0226639763687279</v>
       </c>
       <c r="N25">
-        <v>-3.62365863535128</v>
+        <v>-4.08810774435524</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q25">
         <v>1792826.893</v>
@@ -2323,19 +2320,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,37 +2352,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>5.47279789497868E-06</v>
+        <v>0.000116810981519</v>
       </c>
       <c r="G26">
-        <v>0.0394736842105263</v>
+        <v>0.0422535211267606</v>
       </c>
       <c r="H26">
-        <v>0.6447368421052631</v>
+        <v>0.71830985915493</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>0.775</v>
+        <v>0.5</v>
       </c>
       <c r="K26">
-        <v>-0.08532456668385489</v>
+        <v>-0.0749514225181598</v>
       </c>
       <c r="L26">
-        <v>-0.126168907122025</v>
+        <v>-0.116015132436049</v>
       </c>
       <c r="M26">
-        <v>-0.0518326137707392</v>
+        <v>-0.0383860973746334</v>
       </c>
       <c r="N26">
-        <v>-11.0096215075942</v>
+        <v>-14.990284503632</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1792826.893</v>
@@ -2394,19 +2391,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V26" t="s">
+        <v>57</v>
+      </c>
+      <c r="W26" t="s">
         <v>58</v>
-      </c>
-      <c r="W26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,37 +2423,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.0044494078531489</v>
+        <v>0.293386698231077</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.82089552238806</v>
+        <v>0.8405797101449271</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>8.005000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="K27">
-        <v>-0.058716944246198</v>
+        <v>-0.0110950789793438</v>
       </c>
       <c r="L27">
-        <v>-0.0923487012632557</v>
+        <v>-0.0442972287519773</v>
       </c>
       <c r="M27">
-        <v>-0.0163432881959413</v>
+        <v>0.0206446395167747</v>
       </c>
       <c r="N27">
-        <v>-0.733503363475302</v>
+        <v>-0.140800494661724</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q27">
         <v>1792826.893</v>
@@ -2465,19 +2462,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,37 +2494,37 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.0011301585798951</v>
+        <v>0.0304730577553773</v>
       </c>
       <c r="G28">
-        <v>0.0074626865671641</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="H28">
-        <v>0.335820895522388</v>
+        <v>0.321167883211679</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="K28">
-        <v>0.0006363240418118</v>
+        <v>0.0003752890049835</v>
       </c>
       <c r="L28">
-        <v>0.0002973659708639</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0010083710163902</v>
+        <v>0.0007551657759707</v>
       </c>
       <c r="N28">
-        <v>1.98851263066202</v>
+        <v>1.1037911911281</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1792826.893</v>
@@ -2536,19 +2533,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,37 +2565,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.770600086566656</v>
+        <v>0.818061023396358</v>
       </c>
       <c r="G29">
-        <v>0.0522388059701493</v>
+        <v>0.0510948905109489</v>
       </c>
       <c r="H29">
-        <v>0.708955223880597</v>
+        <v>0.72992700729927</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="K29">
         <v>-2.97354138398915</v>
       </c>
       <c r="L29">
-        <v>-10.4839641012304</v>
+        <v>-11.9500603071077</v>
       </c>
       <c r="M29">
-        <v>3.85041402127554</v>
+        <v>2.90338701766235</v>
       </c>
       <c r="N29">
-        <v>-0.778413974866269</v>
+        <v>-0.80365983351058</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q29">
         <v>1792826.893</v>
@@ -2607,19 +2604,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,22 +2633,22 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.0997382879467326</v>
+        <v>0.006444463491284</v>
       </c>
       <c r="G30">
-        <v>0.434108527131783</v>
+        <v>0.442748091603053</v>
       </c>
       <c r="H30">
-        <v>0.5658914728682169</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.0118391864572181</v>
+        <v>0.0115751539021262</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2660,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.000187533950335</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1792826.893</v>
@@ -2678,19 +2675,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2710,37 +2707,37 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.977802422339842</v>
+        <v>0.998739660850374</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.251968503937008</v>
+        <v>0.226277372262774</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K31">
-        <v>-0.0003137886597938</v>
+        <v>-0.0003937486817035</v>
       </c>
       <c r="L31">
-        <v>-0.0005934819279196</v>
+        <v>-0.0006158120180836</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-0.0001705707544185</v>
       </c>
       <c r="N31">
-        <v>-2.41375892149088</v>
+        <v>-3.28123901419606</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1792826.893</v>
@@ -2749,19 +2746,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,37 +2778,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.999999999175617</v>
+        <v>0.999999974608599</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.960629921259842</v>
+        <v>0.948905109489051</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5.96</v>
+        <v>5.79</v>
       </c>
       <c r="K32">
-        <v>-0.179640044576523</v>
+        <v>-0.142609681415223</v>
       </c>
       <c r="L32">
-        <v>-0.214170037116946</v>
+        <v>-0.174491437127921</v>
       </c>
       <c r="M32">
-        <v>-0.140472759645684</v>
+        <v>-0.107157412505207</v>
       </c>
       <c r="N32">
-        <v>-3.01409470765978</v>
+        <v>-2.46303422133373</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q32">
         <v>1792826.893</v>
@@ -2820,19 +2817,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,13 +2849,13 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.0017091754606289</v>
+        <v>0.0057041856591589</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.564885496183206</v>
+        <v>0.529850746268657</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2867,22 +2864,22 @@
         <v>7.1</v>
       </c>
       <c r="K33">
-        <v>-0.017649190625755</v>
+        <v>-0.0144940476190473</v>
       </c>
       <c r="L33">
-        <v>-0.0290115998813933</v>
+        <v>-0.0243824329835847</v>
       </c>
       <c r="M33">
-        <v>-0.0074864149269545</v>
+        <v>-0.0050519058179097</v>
       </c>
       <c r="N33">
-        <v>-0.248580149658522</v>
+        <v>-0.20414151576123</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1792826.893</v>
@@ -2891,16 +2888,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,37 +2917,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.99999999968339</v>
+        <v>0.999999967383838</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.985074626865672</v>
+        <v>0.992700729927007</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>6.0285</v>
+        <v>5.821</v>
       </c>
       <c r="K34">
-        <v>-0.164748080614203</v>
+        <v>-0.142842652917209</v>
       </c>
       <c r="L34">
-        <v>-0.199314867653585</v>
+        <v>-0.174314275333318</v>
       </c>
       <c r="M34">
-        <v>-0.12878351593773</v>
+        <v>-0.10683618081373</v>
       </c>
       <c r="N34">
-        <v>-2.73282044644942</v>
+        <v>-2.45391947976651</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q34">
         <v>1792826.893</v>
@@ -2959,19 +2956,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,37 +2988,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.99999999999931</v>
+        <v>0.999999999764295</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.895522388059702</v>
+        <v>0.883211678832117</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>6.33</v>
+        <v>6.25</v>
       </c>
       <c r="K35">
-        <v>-0.172107329842932</v>
+        <v>-0.142520909029288</v>
       </c>
       <c r="L35">
-        <v>-0.208216925475663</v>
+        <v>-0.17805338264145</v>
       </c>
       <c r="M35">
-        <v>-0.138196069912136</v>
+        <v>-0.110328889436951</v>
       </c>
       <c r="N35">
-        <v>-2.71891516339545</v>
+        <v>-2.28033454446861</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q35">
         <v>1792826.893</v>
@@ -3030,19 +3027,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3059,40 +3056,40 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>0.6223574348373631</v>
+        <v>0.505197715987868</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.552238805970149</v>
+        <v>0.5328467153284669</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.06900000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="K36">
-        <v>-0.0001597070397901</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0009551738969516</v>
+        <v>-0.0007984830690299</v>
       </c>
       <c r="M36">
-        <v>0.0006630534747242</v>
+        <v>0.000777323336218</v>
       </c>
       <c r="N36">
-        <v>-0.231459477956693</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q36">
         <v>1792826.893</v>
@@ -3101,19 +3098,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,43 +3124,43 @@
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.988209858931253</v>
+        <v>0.998065450927791</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.962686567164179</v>
+        <v>0.948905109489051</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>5.235</v>
+        <v>4.71</v>
       </c>
       <c r="K37">
-        <v>-0.143200629235237</v>
+        <v>-0.16954575596817</v>
       </c>
       <c r="L37">
-        <v>-0.246257882276061</v>
+        <v>-0.267467984179926</v>
       </c>
       <c r="M37">
-        <v>-0.0375550373198304</v>
+        <v>-0.0654686817479344</v>
       </c>
       <c r="N37">
-        <v>-2.73544659475143</v>
+        <v>-3.59969757894203</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q37">
         <v>1792826.893</v>
@@ -3172,19 +3169,19 @@
         <v>5502257.725</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3204,38 +3201,38 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.110335680959923</v>
+        <v>0.306677177977373</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.169</v>
+        <v>0.155</v>
       </c>
       <c r="K38">
-        <v>-0.008991924365131399</v>
+        <v>-0.0040873304102077</v>
       </c>
       <c r="L38">
-        <v>-0.0198436523162641</v>
+        <v>-0.0114428542221897</v>
       </c>
       <c r="M38">
-        <v>-0.0026574212160133</v>
+        <v>0.0013934980125358</v>
       </c>
       <c r="N38">
-        <v>-5.32066530481148</v>
+        <v>-2.63698736142438</v>
       </c>
       <c r="O38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s">
         <v>43</v>
       </c>
-      <c r="P38" t="s">
-        <v>48</v>
-      </c>
       <c r="Q38">
         <v>1792826.893</v>
       </c>
@@ -3243,16 +3240,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3272,7 +3269,7 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.110335680959923</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3287,22 +3284,22 @@
         <v>77</v>
       </c>
       <c r="K39">
-        <v>-1.8384727772829</v>
+        <v>-0.659238217025941</v>
       </c>
       <c r="L39">
         <v>-6.03633874720752</v>
       </c>
       <c r="M39">
-        <v>0.09489802870245211</v>
+        <v>0.57020512755055</v>
       </c>
       <c r="N39">
-        <v>-2.38762698348429</v>
+        <v>-0.856153528605118</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q39">
         <v>1792826.893</v>
@@ -3311,16 +3308,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3355,22 +3352,22 @@
         <v>4.1</v>
       </c>
       <c r="K40">
-        <v>-0.0564647518497732</v>
+        <v>-0.0471725939690474</v>
       </c>
       <c r="L40">
-        <v>-0.118464207243067</v>
+        <v>-0.08485180223075189</v>
       </c>
       <c r="M40">
         <v>-0.0383900711490622</v>
       </c>
       <c r="N40">
-        <v>-1.37718906950666</v>
+        <v>-1.15055107241579</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1792826.893</v>
@@ -3379,16 +3376,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3408,37 +3405,37 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.029657203235177</v>
+        <v>0.035667474488985</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.18</v>
+        <v>0.1695</v>
       </c>
       <c r="K41">
-        <v>-0.0051579876434245</v>
+        <v>-0.0046698630136986</v>
       </c>
       <c r="L41">
-        <v>-0.00899642869389</v>
+        <v>-0.0085895573063065</v>
       </c>
       <c r="M41">
-        <v>-0.0019699029827731</v>
+        <v>-0.0008223411883421</v>
       </c>
       <c r="N41">
-        <v>-2.86554869079141</v>
+        <v>-2.75508142401099</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q41">
         <v>1792826.893</v>
@@ -3447,16 +3444,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3476,37 +3473,37 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.074556527569078</v>
+        <v>0.088983712984032</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>80.91500000000001</v>
+        <v>79.41500000000001</v>
       </c>
       <c r="K42">
-        <v>-0.657393328161366</v>
+        <v>-0.8458777211672071</v>
       </c>
       <c r="L42">
-        <v>-1.81802243926726</v>
+        <v>-1.86607888276685</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>0.08376027617385851</v>
       </c>
       <c r="N42">
-        <v>-0.812449271657129</v>
+        <v>-1.065135958153</v>
       </c>
       <c r="O42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q42">
         <v>1792826.893</v>
@@ -3515,16 +3512,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3544,7 +3541,7 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.393807883351103</v>
+        <v>0.063424647007573</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3559,22 +3556,22 @@
         <v>4.1</v>
       </c>
       <c r="K43">
-        <v>-0.007339833106267</v>
+        <v>-0.0450308219178081</v>
       </c>
       <c r="L43">
-        <v>-0.0522667480615656</v>
+        <v>-0.0633588882737445</v>
       </c>
       <c r="M43">
-        <v>0.0213753790105409</v>
+        <v>-0.0025090675870165</v>
       </c>
       <c r="N43">
-        <v>-0.17902031966505</v>
+        <v>-1.09831272970264</v>
       </c>
       <c r="O43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1792826.893</v>
@@ -3583,16 +3580,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3612,13 +3609,13 @@
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.0240349890987021</v>
+        <v>0.009785084539922001</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3627,22 +3624,22 @@
         <v>0.19</v>
       </c>
       <c r="K44">
-        <v>-0.0030269337016574</v>
+        <v>-0.0033141485545473</v>
       </c>
       <c r="L44">
-        <v>-0.0051279498598539</v>
+        <v>-0.0050677777728284</v>
       </c>
       <c r="M44">
-        <v>-0.0010755168168365</v>
+        <v>-0.0014170041867013</v>
       </c>
       <c r="N44">
-        <v>-1.59312300087235</v>
+        <v>-1.74428871291967</v>
       </c>
       <c r="O44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q44">
         <v>1792826.893</v>
@@ -3651,16 +3648,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3680,7 +3677,7 @@
         <v>39</v>
       </c>
       <c r="F45">
-        <v>0.009785084539922001</v>
+        <v>0.001691933354804</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3695,22 +3692,22 @@
         <v>81</v>
       </c>
       <c r="K45">
-        <v>-0.968253293084522</v>
+        <v>-1.08259348198971</v>
       </c>
       <c r="L45">
-        <v>-1.58155805506101</v>
+        <v>-1.75299366857399</v>
       </c>
       <c r="M45">
-        <v>-0.145586934855983</v>
+        <v>-0.604673085125724</v>
       </c>
       <c r="N45">
-        <v>-1.19537443590682</v>
+        <v>-1.33653516295026</v>
       </c>
       <c r="O45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q45">
         <v>1792826.893</v>
@@ -3719,16 +3716,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3748,13 +3745,13 @@
         <v>39</v>
       </c>
       <c r="F46">
-        <v>0.543723699044852</v>
+        <v>0.382984071951325</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.857142857142857</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3763,22 +3760,22 @@
         <v>4.1</v>
       </c>
       <c r="K46">
-        <v>8.396551724140741E-05</v>
+        <v>-0.001104475355307</v>
       </c>
       <c r="L46">
-        <v>-0.0155434797194597</v>
+        <v>-0.0211333586737783</v>
       </c>
       <c r="M46">
-        <v>0.0168251786516606</v>
+        <v>0.0099876931804561</v>
       </c>
       <c r="N46">
-        <v>0.0020479394449123</v>
+        <v>-0.0269384233001707</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q46">
         <v>1792826.893</v>
@@ -3787,16 +3784,16 @@
         <v>5502257.725</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
